--- a/data/trans_dic/P34_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Dificultad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.3087131637989621</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.3565172700095072</v>
+        <v>0.3565172700095073</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.3723226601611817</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3561672425628326</v>
+        <v>0.3577548614688519</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2739839030180234</v>
+        <v>0.2721704330517282</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3019322581101944</v>
+        <v>0.3002895025957597</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2906003399365649</v>
+        <v>0.2931175789881373</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3228115807678239</v>
+        <v>0.3243669461168641</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2604613469323146</v>
+        <v>0.2617346551592318</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2828129677511093</v>
+        <v>0.2831624628214198</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3227738846377937</v>
+        <v>0.3245505711556626</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3493671955719097</v>
+        <v>0.3484623310776824</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2741836398796791</v>
+        <v>0.2754148271678517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2990097915774445</v>
+        <v>0.3001153351277397</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.3221888288442846</v>
+        <v>0.3197103037217665</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.432564159254607</v>
+        <v>0.437303143108156</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3353758605188419</v>
+        <v>0.3321905017844397</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3603632573238682</v>
+        <v>0.357576018540812</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3869269738088356</v>
+        <v>0.3857345707022506</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3915724268201488</v>
+        <v>0.3895304570294867</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3180360854387675</v>
+        <v>0.3160905959657527</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3353595600588846</v>
+        <v>0.340825727508636</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3895657427125934</v>
+        <v>0.3927894291839333</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3967336560301554</v>
+        <v>0.3964738871883444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3167503027677808</v>
+        <v>0.3170752385645604</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3388080258965473</v>
+        <v>0.3400082950899539</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3783823724867664</v>
+        <v>0.3756505499474423</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.287195058973591</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3022740050628339</v>
+        <v>0.3022740050628338</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2945111152841978</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3292753125977072</v>
+        <v>0.3297421412691268</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2695052280457038</v>
+        <v>0.2671037248919895</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3238796381388885</v>
+        <v>0.3219071060438086</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2693292650722146</v>
+        <v>0.2683610606385485</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2056819985502008</v>
+        <v>0.2031002614622749</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2634306189009586</v>
+        <v>0.2656884483486582</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2588497311513677</v>
+        <v>0.2589685220410666</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.279175325979237</v>
+        <v>0.2794695742302392</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2724252031552096</v>
+        <v>0.2750329767097833</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2729184795071197</v>
+        <v>0.273554841848406</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2982080941499578</v>
+        <v>0.2970491159070577</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2818498688640282</v>
+        <v>0.2802021175512727</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3920791809222782</v>
+        <v>0.3877439574789305</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3290944281641517</v>
+        <v>0.3272326595920159</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.387950117585021</v>
+        <v>0.384008480089556</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3335141658297222</v>
+        <v>0.3330618773499123</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2559459125956418</v>
+        <v>0.2569092845741032</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3213554502638582</v>
+        <v>0.3205986948428417</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3170288987123566</v>
+        <v>0.3197873555758926</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3268464140291047</v>
+        <v>0.3269701078912456</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3137409554520946</v>
+        <v>0.3140054887472059</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3135293008563473</v>
+        <v>0.3151365257488049</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3426918951220939</v>
+        <v>0.3404731775430588</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3213263643402922</v>
+        <v>0.319809753832531</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3541112770259655</v>
+        <v>0.3539944788456366</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2959297668625772</v>
+        <v>0.2966163418508864</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3525126924030135</v>
+        <v>0.3525515569964161</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3337496726085349</v>
+        <v>0.3309759566951553</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2932169868854759</v>
+        <v>0.2958715625346846</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2708995130108861</v>
+        <v>0.2716508877550641</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3068321547481982</v>
+        <v>0.3074019250430086</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3411967044123407</v>
+        <v>0.3415965755184091</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3339614844480076</v>
+        <v>0.3343865762413302</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2921055166453833</v>
+        <v>0.2937727906443561</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3404894521843341</v>
+        <v>0.3404997538223503</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3457644740517632</v>
+        <v>0.3439633538339723</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4126628991161707</v>
+        <v>0.4155914979564769</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3600878757935456</v>
+        <v>0.3624479810274028</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4200712859620669</v>
+        <v>0.4222273725967904</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4019475614034135</v>
+        <v>0.3991059085344144</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3536146221832444</v>
+        <v>0.3513929881988855</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3376447901337892</v>
+        <v>0.3370435618203991</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3752909256372413</v>
+        <v>0.3804060032159074</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3948733193317772</v>
+        <v>0.3935017053048017</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3760434607282102</v>
+        <v>0.3765913219492626</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3396077285243802</v>
+        <v>0.3402699513132506</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3916495771779235</v>
+        <v>0.3892461221304381</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.386573441070469</v>
+        <v>0.3883308965896414</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3884624098453616</v>
+        <v>0.3871052498325839</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3078452862885044</v>
+        <v>0.3077072172341224</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3871154984028942</v>
+        <v>0.3854717170819306</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3795090839143169</v>
+        <v>0.3775030501133158</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3592594794716753</v>
+        <v>0.3577278814604086</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2515854028729235</v>
+        <v>0.2513587846208527</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2896529117487193</v>
+        <v>0.2899535543087434</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.3326068643350498</v>
+        <v>0.3291606881251313</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3920701187572298</v>
+        <v>0.388605409434027</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2922224590647057</v>
+        <v>0.2930023126654714</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3540525752318327</v>
+        <v>0.3515705396437966</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3643530868687054</v>
+        <v>0.3642998656490096</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4869163879295921</v>
+        <v>0.480851045924529</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3976087943369931</v>
+        <v>0.3980186925597011</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4784812173320052</v>
+        <v>0.4787531127840712</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.446766092615815</v>
+        <v>0.448405792953267</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4630442886048565</v>
+        <v>0.4653234786756101</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3403918675214625</v>
+        <v>0.3424219322197031</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3740155338213311</v>
+        <v>0.3806126235585548</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3918527832455171</v>
+        <v>0.3915098570992614</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4612380704376611</v>
+        <v>0.4635521949239554</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3532512248496837</v>
+        <v>0.359896732433116</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4154540901700745</v>
+        <v>0.4146175064308681</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.410822560416116</v>
+        <v>0.4117207764082869</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3660074060849618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.356317640434432</v>
+        <v>0.3563176404344319</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.31119272225952</v>
@@ -1241,7 +1241,7 @@
         <v>0.3388715482596617</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.3498740167422522</v>
+        <v>0.3498740167422523</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.36844728814923</v>
+        <v>0.3689492423916942</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2988235619024288</v>
+        <v>0.2983816949245819</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3482510451623636</v>
+        <v>0.3484922828330707</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3375055408904243</v>
+        <v>0.3391307065745086</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2952304404449189</v>
+        <v>0.2956880158752066</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2789537647118807</v>
+        <v>0.279692401104437</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2984296313025577</v>
+        <v>0.2967388449430016</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.330628881039674</v>
+        <v>0.3308932913106808</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3355609036506889</v>
+        <v>0.3366435478401214</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2933467246968337</v>
+        <v>0.2921878062624474</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3268737208141639</v>
+        <v>0.3256924258785751</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3395226068907112</v>
+        <v>0.3391489258401229</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4038892010316536</v>
+        <v>0.4029080038124149</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3321674688573494</v>
+        <v>0.3325968330261187</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3831542542642526</v>
+        <v>0.3832395271448111</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.374258479216614</v>
+        <v>0.3736422382779326</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3268652395810349</v>
+        <v>0.3274731845888933</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3112058027641383</v>
+        <v>0.311582685607207</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3306132056353712</v>
+        <v>0.3299851581995011</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3588375982583408</v>
+        <v>0.3574876039558996</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3597987407511795</v>
+        <v>0.3597057515383583</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.317240270627492</v>
+        <v>0.3156718436661979</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3494605782446181</v>
+        <v>0.3498062658343219</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.360630522699105</v>
+        <v>0.3618000831368752</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>206739</v>
+        <v>207660</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>282854</v>
+        <v>280981</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>337428</v>
+        <v>335592</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>142294</v>
+        <v>143526</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>294475</v>
+        <v>295894</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>288400</v>
+        <v>289810</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>354787</v>
+        <v>355225</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>198867</v>
+        <v>199962</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>521491</v>
+        <v>520141</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>586655</v>
+        <v>589289</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>709267</v>
+        <v>711890</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>356268</v>
+        <v>353528</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>251084</v>
+        <v>253834</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>346233</v>
+        <v>342945</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>402728</v>
+        <v>399613</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>189461</v>
+        <v>188877</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>357200</v>
+        <v>355337</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>352151</v>
+        <v>349997</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>420706</v>
+        <v>427563</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>240019</v>
+        <v>242005</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>592194</v>
+        <v>591806</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>677732</v>
+        <v>678427</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>803671</v>
+        <v>806518</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>418406</v>
+        <v>415385</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>350585</v>
+        <v>351082</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>261619</v>
+        <v>259287</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>293118</v>
+        <v>291332</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>256763</v>
+        <v>255840</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>216451</v>
+        <v>213734</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>286878</v>
+        <v>289337</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>259139</v>
+        <v>259258</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>309994</v>
+        <v>310321</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>576744</v>
+        <v>582265</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>562142</v>
+        <v>563453</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>568425</v>
+        <v>566216</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>581663</v>
+        <v>578263</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>417453</v>
+        <v>412837</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>319464</v>
+        <v>317657</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>351103</v>
+        <v>347535</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>317953</v>
+        <v>317522</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>269347</v>
+        <v>270361</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>349958</v>
+        <v>349134</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>317383</v>
+        <v>320145</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>362928</v>
+        <v>363065</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>664213</v>
+        <v>664773</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>645790</v>
+        <v>649100</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>653218</v>
+        <v>648989</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>663132</v>
+        <v>660002</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>392267</v>
+        <v>392138</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>260988</v>
+        <v>261593</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>286879</v>
+        <v>286911</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>345734</v>
+        <v>342860</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>289469</v>
+        <v>292090</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>236460</v>
+        <v>237116</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>235237</v>
+        <v>235673</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>356979</v>
+        <v>357397</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>699640</v>
+        <v>700530</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>512585</v>
+        <v>515511</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>538135</v>
+        <v>538151</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>719937</v>
+        <v>716187</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>457128</v>
+        <v>460372</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>317570</v>
+        <v>319652</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>341859</v>
+        <v>343614</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>416380</v>
+        <v>413437</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>349095</v>
+        <v>346902</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>294720</v>
+        <v>294195</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>287721</v>
+        <v>291643</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>413138</v>
+        <v>411703</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>787800</v>
+        <v>788948</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>595942</v>
+        <v>597104</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>618992</v>
+        <v>615193</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>804908</v>
+        <v>808567</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>173048</v>
+        <v>172443</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>154037</v>
+        <v>153968</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>195348</v>
+        <v>194518</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>368618</v>
+        <v>366669</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>121901</v>
+        <v>121381</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>112667</v>
+        <v>112566</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>141539</v>
+        <v>141686</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>300035</v>
+        <v>296926</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>307689</v>
+        <v>304970</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>277085</v>
+        <v>277824</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>351672</v>
+        <v>349207</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>682569</v>
+        <v>682469</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>216906</v>
+        <v>214204</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>198952</v>
+        <v>199157</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>241453</v>
+        <v>241590</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>433944</v>
+        <v>435537</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>157116</v>
+        <v>157889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>152437</v>
+        <v>153346</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>182763</v>
+        <v>185987</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>353479</v>
+        <v>353169</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>361970</v>
+        <v>363786</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>334952</v>
+        <v>341254</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>412661</v>
+        <v>411830</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>769623</v>
+        <v>771306</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1178438</v>
+        <v>1180044</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1011638</v>
+        <v>1010143</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1163513</v>
+        <v>1164319</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1164463</v>
+        <v>1170070</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>971635</v>
+        <v>973141</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>981073</v>
+        <v>983671</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1047764</v>
+        <v>1041828</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1215007</v>
+        <v>1215979</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2177622</v>
+        <v>2184648</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2024790</v>
+        <v>2016790</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2239719</v>
+        <v>2231625</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2419113</v>
+        <v>2416450</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1291796</v>
+        <v>1288657</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1124521</v>
+        <v>1125975</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1280125</v>
+        <v>1280410</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1291268</v>
+        <v>1289142</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1075749</v>
+        <v>1077750</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1094502</v>
+        <v>1095828</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1160758</v>
+        <v>1158553</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1318670</v>
+        <v>1313709</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2334914</v>
+        <v>2334310</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2189712</v>
+        <v>2178886</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2394483</v>
+        <v>2396852</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2569508</v>
+        <v>2577841</v>
       </c>
     </row>
     <row r="24">
